--- a/k45-topics.xlsx
+++ b/k45-topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/Code/all-women-shortlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B38360-4706-DF4C-96BD-25149F303FB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCAF38-9B9B-3149-AD80-D5B5CB472291}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16380" xr2:uid="{5D5FDDDE-30C6-EE4A-9FBF-7DE3800CDAD1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="48">
   <si>
     <t>Business</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Benefits and pensions</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
     <t>Constituency</t>
   </si>
   <si>
+    <t>Interventions</t>
+  </si>
+  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Responses</t>
+  </si>
+  <si>
+    <t>Call to action</t>
   </si>
 </sst>
 </file>
@@ -518,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC044EA-F25D-8C4F-93CD-EFA59B5F2B80}">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,14 +1147,14 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>"Topic 30" = "Other",</v>
+        <v>"Topic 30" = "Call to action",</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,7 +1168,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
@@ -1186,7 +1189,7 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
         <v>45</v>
@@ -1207,7 +1210,7 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
@@ -1228,7 +1231,7 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
@@ -1249,7 +1252,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
@@ -1270,7 +1273,7 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
@@ -1291,7 +1294,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
@@ -1312,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>45</v>
@@ -1333,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
@@ -1354,7 +1357,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
@@ -1375,7 +1378,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -1396,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1417,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
@@ -1458,12 +1461,15 @@
       <c r="C46" t="s">
         <v>44</v>
       </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>"Topic 45" = "",</v>
+        <v>"Topic 45" = "Interventions",</v>
       </c>
     </row>
   </sheetData>
